--- a/ProfDev/Costs.xlsx
+++ b/ProfDev/Costs.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Billable Work (per hour)</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Prep Work (Prior to client meeting)</t>
+  </si>
+  <si>
+    <t>17/12 – 24/12 (2015)</t>
+  </si>
+  <si>
+    <t>Further speculative work/Generic Organisation</t>
   </si>
   <si>
     <t>Billable Work</t>
@@ -384,15 +390,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7142857142857"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.4285714285714"/>
@@ -484,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -541,8 +547,66 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="5" t="n">
+        <f aca="false">SUM(D4:Y4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="37">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -568,6 +632,18 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -598,7 +674,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
